--- a/combined_df.xlsx
+++ b/combined_df.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35d9b2a7420a4bbe/Desktop/Projects/Narcos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1411D8D5-74E7-4D62-B0DC-A993E39CED34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28D03B12-D20A-40B2-93A7-C707CCA6C9B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41197A05-A978-4B64-9051-ADAD7D0B8926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="combined_df" sheetId="1" r:id="rId1"/>
+    <sheet name="final_df" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>country</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>Peru</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Uruguay</t>
@@ -976,11 +970,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1012,16 +1004,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2.23</v>
+        <v>7.67</v>
       </c>
       <c r="D2">
-        <v>0.18</v>
+        <v>5.16</v>
       </c>
       <c r="E2">
-        <v>0.59</v>
+        <v>5.37</v>
       </c>
       <c r="F2">
-        <v>0.88</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1032,16 +1024,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1.1499999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="D3">
-        <v>4.32</v>
+        <v>8.98</v>
       </c>
       <c r="E3">
-        <v>2.35</v>
+        <v>6.48</v>
       </c>
       <c r="F3">
-        <v>3.07</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,16 +1044,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.12</v>
+        <v>8.33</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>2.86</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,16 +1064,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3.32</v>
+        <v>8.48</v>
       </c>
       <c r="D5">
-        <v>2.94</v>
+        <v>7.71</v>
       </c>
       <c r="E5">
-        <v>1.17</v>
+        <v>5.74</v>
       </c>
       <c r="F5">
-        <v>2.54</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,16 +1084,16 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1.83</v>
+        <v>7.3599999999999897</v>
       </c>
       <c r="D6">
-        <v>0.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E6">
-        <v>1.17</v>
+        <v>5.74</v>
       </c>
       <c r="F6">
-        <v>0.95</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1112,16 +1104,16 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>4.24</v>
+        <v>9.18</v>
       </c>
       <c r="D7">
-        <v>3.74</v>
+        <v>8.44</v>
       </c>
       <c r="E7">
-        <v>4.7</v>
+        <v>7.97</v>
       </c>
       <c r="F7">
-        <v>4.58</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1132,16 +1124,16 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="D8">
-        <v>1.23</v>
+        <v>6.14</v>
       </c>
       <c r="E8">
-        <v>1.76</v>
+        <v>6.11</v>
       </c>
       <c r="F8">
-        <v>1.25</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,16 +1144,16 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>0.98</v>
+        <v>6.73</v>
       </c>
       <c r="D9">
-        <v>0.14000000000000001</v>
+        <v>5.13</v>
       </c>
       <c r="E9">
-        <v>0.59</v>
+        <v>5.37</v>
       </c>
       <c r="F9">
-        <v>0.55000000000000004</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,16 +1164,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>1.51</v>
+        <v>7.12</v>
       </c>
       <c r="D10">
-        <v>1.1000000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="E10">
-        <v>3.52</v>
+        <v>7.22</v>
       </c>
       <c r="F10">
-        <v>2.2999999999999998</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,16 +1184,16 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2.91</v>
+        <v>8.18</v>
       </c>
       <c r="D11">
-        <v>1.64</v>
+        <v>6.51</v>
       </c>
       <c r="E11">
-        <v>2.35</v>
+        <v>6.48</v>
       </c>
       <c r="F11">
-        <v>2.39</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1212,16 +1204,16 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>2.71</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="D12">
-        <v>2.2799999999999998</v>
+        <v>7.1099999999999897</v>
       </c>
       <c r="E12">
-        <v>1.17</v>
+        <v>5.74</v>
       </c>
       <c r="F12">
-        <v>2.11</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,16 +1224,16 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>3.24</v>
+        <v>8.42</v>
       </c>
       <c r="D13">
-        <v>2.57</v>
+        <v>7.37</v>
       </c>
       <c r="E13">
-        <v>1.76</v>
+        <v>6.11</v>
       </c>
       <c r="F13">
-        <v>2.61</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1252,16 +1244,16 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>1.48</v>
+        <v>6.36</v>
       </c>
       <c r="E14">
-        <v>4.7</v>
+        <v>7.97</v>
       </c>
       <c r="F14">
-        <v>3.82</v>
+        <v>8.4700000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1272,16 +1264,16 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>4.08</v>
+        <v>9.0599999999999898</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>1.76</v>
+        <v>6.11</v>
       </c>
       <c r="F15">
-        <v>3.84</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1289,19 +1281,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>1.31</v>
+        <v>9.27</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="E16">
-        <v>1.76</v>
+        <v>7.22</v>
       </c>
       <c r="F16">
-        <v>3.14</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1312,16 +1304,16 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>4.3600000000000003</v>
+        <v>8.52</v>
       </c>
       <c r="D17">
-        <v>3.84</v>
+        <v>6.08</v>
       </c>
       <c r="E17">
-        <v>3.52</v>
+        <v>5.74</v>
       </c>
       <c r="F17">
-        <v>4.16</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1332,16 +1324,16 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>3.36</v>
+        <v>7.15</v>
       </c>
       <c r="D18">
-        <v>1.17</v>
+        <v>6.33</v>
       </c>
       <c r="E18">
-        <v>1.17</v>
+        <v>6.48</v>
       </c>
       <c r="F18">
-        <v>1.82</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1349,19 +1341,19 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>1.55</v>
+        <v>7.58</v>
       </c>
       <c r="D19">
-        <v>1.44</v>
+        <v>5.62</v>
       </c>
       <c r="E19">
-        <v>2.35</v>
+        <v>5.74</v>
       </c>
       <c r="F19">
-        <v>1.97</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,16 +1364,16 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>2.11</v>
+        <v>8.8799999999999901</v>
       </c>
       <c r="D20">
-        <v>0.68</v>
+        <v>5.32</v>
       </c>
       <c r="E20">
-        <v>1.17</v>
+        <v>7.6</v>
       </c>
       <c r="F20">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,16 +1384,16 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>3.84</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>0.35</v>
+        <v>5.78</v>
       </c>
       <c r="E21">
-        <v>4.1100000000000003</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>2.82</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1409,59 +1401,19 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>1.39</v>
+        <v>9.8799999999999901</v>
       </c>
       <c r="D22">
-        <v>4.03</v>
+        <v>7.27</v>
       </c>
       <c r="E22">
-        <v>1.76</v>
+        <v>6.48</v>
       </c>
       <c r="F22">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0.84</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2.46</v>
-      </c>
-      <c r="E24">
-        <v>2.35</v>
-      </c>
-      <c r="F24">
-        <v>3.25</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/combined_df.xlsx
+++ b/combined_df.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35d9b2a7420a4bbe/Desktop/Projects/Narcos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41197A05-A978-4B64-9051-ADAD7D0B8926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA00AE8-861B-46AE-BEC8-938E953550F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="final_df" sheetId="1" r:id="rId1"/>
+    <sheet name="combined_df" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1004,16 +1004,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>7.67</v>
+        <v>7.13</v>
       </c>
       <c r="D2">
-        <v>5.16</v>
+        <v>5.22</v>
       </c>
       <c r="E2">
-        <v>5.37</v>
+        <v>5.57</v>
       </c>
       <c r="F2">
-        <v>6.3</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1024,16 +1024,16 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>6.85</v>
+        <v>6.07</v>
       </c>
       <c r="D3">
-        <v>8.98</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>6.48</v>
+        <v>7.2799999999999896</v>
       </c>
       <c r="F3">
-        <v>8.15</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>8.33</v>
+        <v>7.99</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>8.33</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1064,16 +1064,16 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8.48</v>
+        <v>8.19</v>
       </c>
       <c r="D5">
-        <v>7.71</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="E5">
-        <v>5.74</v>
+        <v>6.14</v>
       </c>
       <c r="F5">
-        <v>7.72</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,16 +1084,16 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>7.3599999999999897</v>
+        <v>6.74</v>
       </c>
       <c r="D6">
-        <v>5.0199999999999996</v>
+        <v>5.03</v>
       </c>
       <c r="E6">
-        <v>5.74</v>
+        <v>6.14</v>
       </c>
       <c r="F6">
-        <v>6.32</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,16 +1104,16 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>9.18</v>
+        <v>9.1</v>
       </c>
       <c r="D7">
-        <v>8.44</v>
+        <v>9.6</v>
       </c>
       <c r="E7">
-        <v>7.97</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F7">
-        <v>9.1300000000000008</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1124,16 +1124,16 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>6.14</v>
+        <v>6.52</v>
       </c>
       <c r="E8">
-        <v>6.11</v>
+        <v>6.71</v>
       </c>
       <c r="F8">
-        <v>6.43</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1144,16 +1144,16 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>6.73</v>
+        <v>5.91</v>
       </c>
       <c r="D9">
-        <v>5.13</v>
+        <v>5.18</v>
       </c>
       <c r="E9">
-        <v>5.37</v>
+        <v>5.57</v>
       </c>
       <c r="F9">
-        <v>6.06</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,16 +1164,16 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>7.12</v>
+        <v>6.42</v>
       </c>
       <c r="D10">
-        <v>6.01</v>
+        <v>6.35</v>
       </c>
       <c r="E10">
-        <v>7.22</v>
+        <v>8.41</v>
       </c>
       <c r="F10">
-        <v>7.29</v>
+        <v>8.1199999999999992</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1184,16 +1184,16 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>8.18</v>
+        <v>7.8</v>
       </c>
       <c r="D11">
-        <v>6.51</v>
+        <v>7.02</v>
       </c>
       <c r="E11">
-        <v>6.48</v>
+        <v>7.2799999999999896</v>
       </c>
       <c r="F11">
-        <v>7.46</v>
+        <v>8.5399999999999991</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,16 +1204,16 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>8.0299999999999994</v>
+        <v>7.6</v>
       </c>
       <c r="D12">
-        <v>7.1099999999999897</v>
+        <v>7.81</v>
       </c>
       <c r="E12">
-        <v>5.74</v>
+        <v>6.14</v>
       </c>
       <c r="F12">
-        <v>7.36</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,16 +1224,16 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>8.42</v>
+        <v>8.11</v>
       </c>
       <c r="D13">
-        <v>7.37</v>
+        <v>8.16</v>
       </c>
       <c r="E13">
-        <v>6.11</v>
+        <v>6.71</v>
       </c>
       <c r="F13">
-        <v>7.72</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1247,13 +1247,13 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>6.36</v>
+        <v>6.82</v>
       </c>
       <c r="E14">
-        <v>7.97</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F14">
-        <v>8.4700000000000006</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1264,16 +1264,16 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>9.0599999999999898</v>
+        <v>8.94</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15">
-        <v>6.11</v>
+        <v>6.71</v>
       </c>
       <c r="F15">
-        <v>8.98</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,16 +1284,16 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>9.27</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="D16">
-        <v>8.5399999999999991</v>
+        <v>9.73</v>
       </c>
       <c r="E16">
-        <v>7.22</v>
+        <v>8.41</v>
       </c>
       <c r="F16">
-        <v>8.8800000000000008</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1304,16 +1304,16 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>8.52</v>
+        <v>8.23</v>
       </c>
       <c r="D17">
-        <v>6.08</v>
+        <v>6.4399999999999897</v>
       </c>
       <c r="E17">
-        <v>5.74</v>
+        <v>6.14</v>
       </c>
       <c r="F17">
-        <v>7.06</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1324,16 +1324,16 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>7.15</v>
+        <v>6.46</v>
       </c>
       <c r="D18">
-        <v>6.33</v>
+        <v>6.77</v>
       </c>
       <c r="E18">
-        <v>6.48</v>
+        <v>7.2799999999999896</v>
       </c>
       <c r="F18">
-        <v>7.12</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1344,16 +1344,16 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>7.58</v>
+        <v>7.01</v>
       </c>
       <c r="D19">
-        <v>5.62</v>
+        <v>5.83</v>
       </c>
       <c r="E19">
-        <v>5.74</v>
+        <v>6.14</v>
       </c>
       <c r="F19">
-        <v>6.63</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1364,16 +1364,16 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>8.8799999999999901</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D20">
-        <v>5.32</v>
+        <v>5.43</v>
       </c>
       <c r="E20">
-        <v>7.6</v>
+        <v>8.98</v>
       </c>
       <c r="F20">
-        <v>7.6</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1387,13 +1387,13 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>5.78</v>
+        <v>6.04</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21">
-        <v>5.74</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1404,16 +1404,16 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>9.8799999999999901</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>7.27</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E22">
-        <v>6.48</v>
+        <v>7.2799999999999896</v>
       </c>
       <c r="F22">
-        <v>8.1999999999999993</v>
+        <v>9.77</v>
       </c>
     </row>
   </sheetData>

--- a/combined_df.xlsx
+++ b/combined_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35d9b2a7420a4bbe/Desktop/Projects/Narcos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA00AE8-861B-46AE-BEC8-938E953550F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE73A30-5391-4C85-817D-D092660E6F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -1013,7 +1013,7 @@
         <v>5.57</v>
       </c>
       <c r="F2">
-        <v>6.84</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>7.2799999999999896</v>
       </c>
       <c r="F3">
-        <v>9.4499999999999993</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>8.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>6.14</v>
       </c>
       <c r="F5">
-        <v>9.09</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1093,7 +1093,7 @@
         <v>6.14</v>
       </c>
       <c r="F6">
-        <v>6.81</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="F7">
-        <v>11.02</v>
+        <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>6.71</v>
       </c>
       <c r="F8">
-        <v>7.16</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>5.57</v>
       </c>
       <c r="F9">
-        <v>6.42</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>8.41</v>
       </c>
       <c r="F10">
-        <v>8.1199999999999992</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>7.2799999999999896</v>
       </c>
       <c r="F11">
-        <v>8.5399999999999991</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>6.14</v>
       </c>
       <c r="F12">
-        <v>8.48</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1233,7 +1233,7 @@
         <v>6.71</v>
       </c>
       <c r="F13">
-        <v>9.02</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="F14">
-        <v>9.93</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1273,7 +1273,7 @@
         <v>6.71</v>
       </c>
       <c r="F15">
-        <v>10.220000000000001</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>8.41</v>
       </c>
       <c r="F16">
-        <v>10.74</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1313,7 +1313,7 @@
         <v>6.14</v>
       </c>
       <c r="F17">
-        <v>8.01</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>7.2799999999999896</v>
       </c>
       <c r="F18">
-        <v>7.96</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1353,7 +1353,7 @@
         <v>6.14</v>
       </c>
       <c r="F19">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1373,7 +1373,7 @@
         <v>8.98</v>
       </c>
       <c r="F20">
-        <v>8.61</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1393,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>6.35</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>7.2799999999999896</v>
       </c>
       <c r="F22">
-        <v>9.77</v>
+        <v>8.33</v>
       </c>
     </row>
   </sheetData>
